--- a/data/excel outputs/p-value analysis/p_values_SVM_vs_Random_Forest.xlsx
+++ b/data/excel outputs/p-value analysis/p_values_SVM_vs_Random_Forest.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.179322006053345e-12</v>
+        <v>1.57078745971871e-11</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.034453876796671e-14</v>
+        <v>1.947769193647037e-15</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.795470359313073e-13</v>
+        <v>8.837937265033676e-19</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.271587852699883e-12</v>
+        <v>9.833144155417632e-14</v>
       </c>
     </row>
     <row r="6">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.728551622838897e-13</v>
+        <v>5.814380881283183e-13</v>
       </c>
     </row>
     <row r="7">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1545105697505873</v>
+        <v>0.1629044558285268</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3298768009211202</v>
+        <v>0.6492977555836577</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1741776365723292</v>
+        <v>0.1194942426631408</v>
       </c>
     </row>
     <row r="10">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.256776297838214e-12</v>
+        <v>2.794755785704203e-11</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8512337284789442</v>
+        <v>0.5729735623544494</v>
       </c>
     </row>
     <row r="12">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.856662296977698</v>
+        <v>0.5607802531035799</v>
       </c>
     </row>
     <row r="13">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6052961863744525</v>
+        <v>0.2328565876712864</v>
       </c>
     </row>
     <row r="14">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1979071130943485</v>
+        <v>0.04674737711171482</v>
       </c>
     </row>
     <row r="15">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.626574849687221e-05</v>
+        <v>0.0007881044345339933</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,138 +607,6 @@
         <is>
           <t>p_value</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3.726854193838798e-16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9.903793940784228e-20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8.146212991058004e-20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.629929979583514e-14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.856745082419526e-15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01322618586882433</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5.60674856595587e-18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.002533371927511646</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.08816077423299451</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.580147599191712e-12</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,136 +633,6 @@
         <is>
           <t>p_value</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.331867389482067e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.93405306355169e-06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.055757253037176e-06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.2660194344503901</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.166782748649044</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.474849968821108e-10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.02099420060405719</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.4289440579809215</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.007360086319359622</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,146 +661,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.11141865154624e-38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
